--- a/formulaires/Form amélioration du processus.xlsx
+++ b/formulaires/Form amélioration du processus.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\LOG-330\2017\LOG330_TP05\formulaires\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETS\2017_LOG_330\LOG330_TP05\formulaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -47,7 +47,19 @@
     <t>Les défauts de type 40 constituent le défaut le plus fréquent.</t>
   </si>
   <si>
-    <t>Consacrer plus de temps lors de la revue de code</t>
+    <t>Les défauts les plus fréquents se sont injectés à la phase de codage.</t>
+  </si>
+  <si>
+    <t>La conception de l'analyseur de fichier change régulièrement</t>
+  </si>
+  <si>
+    <t>Faire un Refactoring et implémenter un itérateur pour avoir une conception robuste pour l'analyseur de fichier</t>
+  </si>
+  <si>
+    <t>Consacrer plus de temps lors de la revue de code et la revue de conception détaillée</t>
+  </si>
+  <si>
+    <t>Le temp passé à la phase de code est supérieur que le temp planifié.</t>
   </si>
 </sst>
 </file>
@@ -387,7 +399,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -438,17 +450,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
+    <row r="3" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -503,12 +527,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
